--- a/Projeto/Relatorios Contribuição/ContribuicaoIndividual - P1.xlsx
+++ b/Projeto/Relatorios Contribuição/ContribuicaoIndividual - P1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Web\Rolling-Tetris-Web\Projeto\Relatorios Contribuição\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C26A7F-43D6-404E-8A27-1503084845F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15B6303-C1C7-4744-AD5D-662A2BE238E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="1065" windowWidth="20640" windowHeight="11760" xr2:uid="{8AD44023-9501-48E1-8BFC-2E44CC22AE8A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Relatório de Contribuição Individual</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Projeto Final - Rolling Tetris - Parte 1</t>
+  </si>
+  <si>
+    <t>Criaou a página de cadastro e fez a revisão final</t>
+  </si>
+  <si>
+    <t>Liderou o grupo e revisou os códigos, fez a página do jogo e rankings</t>
+  </si>
+  <si>
+    <t>Criou a página de configurar conta e regras do jogo</t>
+  </si>
+  <si>
+    <t>Criou a página de login</t>
   </si>
 </sst>
 </file>
@@ -835,7 +847,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,9 +961,11 @@
         <v>231396</v>
       </c>
       <c r="D9" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="E9" s="27"/>
+        <v>0.27</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="31">
         <f>IF(D9="","",IF($A$18="",ROUND(MIN(MIN(10,$F$6+1),COUNTA($D$9:$D$13)*$F$6*D9),1),"Erro"))</f>
         <v>10</v>
@@ -968,12 +982,14 @@
         <v>240147</v>
       </c>
       <c r="D10" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="23"/>
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="F10" s="31">
         <f t="shared" ref="F10:F13" si="0">IF(D10="","",IF($A$18="",ROUND(MIN(MIN(10,$F$6+1),COUNTA($D$9:$D$13)*$F$6*D10),1),"Erro"))</f>
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -987,12 +1003,14 @@
         <v>245517</v>
       </c>
       <c r="D11" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>0.245</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="F11" s="31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,12 +1024,14 @@
         <v>173381</v>
       </c>
       <c r="D12" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="23"/>
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="F12" s="31">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1058,7 +1078,7 @@
       <c r="E16" s="38"/>
       <c r="F16" s="6">
         <f ca="1">NOW()</f>
-        <v>44124.177046874996</v>
+        <v>44127.886546875001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1533,18 +1553,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1567,14 +1587,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDDB3412-F176-463C-9CD3-ADF26C83D016}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0537F2A3-82D8-4D11-AF44-B60EFF661ED7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1589,4 +1601,12 @@
     <ds:schemaRef ds:uri="de106b6a-02b6-4774-b219-e71fbb5cc1ce"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDDB3412-F176-463C-9CD3-ADF26C83D016}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>